--- a/Assets/Excel/GameDataTable.xlsx
+++ b/Assets/Excel/GameDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrwl\OneDrive\바탕 화면\군림\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B39262-3D6C-44A2-A441-4BBC1CFDB91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043E912-5895-4EDB-91D2-CEE36F58577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GameDataTable" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>별도관리 데이터 키값</t>
   </si>
@@ -58,18 +48,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>RevivalTime</t>
-  </si>
-  <si>
-    <t>부활 시간 관리 / 값은 정수만 사용하며 초단위로 설정</t>
-  </si>
-  <si>
-    <t>TrainingPoint</t>
-  </si>
-  <si>
-    <t>경험치 100당 수련치 1 획득</t>
-  </si>
-  <si>
     <t>키값ID</t>
   </si>
   <si>
@@ -79,153 +57,15 @@
     <t>GameDataID</t>
   </si>
   <si>
-    <t>GachaBonusCount</t>
-  </si>
-  <si>
-    <t>천장횟수</t>
-  </si>
-  <si>
-    <t>GachaBonusType</t>
-  </si>
-  <si>
-    <t>천장가챠타입</t>
-  </si>
-  <si>
     <t>값 수량</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>StatReset</t>
-  </si>
-  <si>
-    <t>스탯초기화 비용</t>
-  </si>
-  <si>
-    <t>PvpReward</t>
-  </si>
-  <si>
-    <t>Pvp 보상</t>
-  </si>
-  <si>
-    <t>PveReward</t>
-  </si>
-  <si>
-    <t>PveTeamTime</t>
-  </si>
-  <si>
-    <t>협동전 단계 당 시간 추가</t>
-  </si>
-  <si>
-    <t>PveTeamMaxMonster</t>
-  </si>
-  <si>
-    <t>협동전 최대 몬스터 수</t>
-  </si>
-  <si>
-    <t>SystemMessageTime</t>
-  </si>
-  <si>
-    <t>시스템 메시지 디스플레이 초</t>
-  </si>
-  <si>
-    <t>Pve 보상(사용안함)</t>
-  </si>
-  <si>
-    <t>PveTeamLimitTime</t>
-  </si>
-  <si>
-    <t>협동전 최대 몬스터 도달 후 종료 타이머</t>
-  </si>
-  <si>
-    <t>AchievePointMaxCount</t>
-  </si>
-  <si>
-    <t>업적포인트 일일 최대 획득가능 개수</t>
-  </si>
-  <si>
     <t>GameDataCount</t>
   </si>
   <si>
-    <t>PvPTicketMaxCount</t>
-  </si>
-  <si>
-    <t>일 초기화 생사결 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>PveTicketMaxCount</t>
-  </si>
-  <si>
-    <t>일 초기화 협동전 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>BossDungeonTicketMaxCount</t>
-  </si>
-  <si>
-    <t>일 초기화 보스던전 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>TrainingDungeonTicketMaxCount</t>
-  </si>
-  <si>
-    <t>일 초기화 수련던전 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>DungeonTeamTicketMaxCount</t>
-  </si>
-  <si>
-    <t>일 초기화 선녀궁 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>SplashDamageBlade</t>
-  </si>
-  <si>
-    <t>무기 도 착용시 광역 피해 적용율</t>
-  </si>
-  <si>
-    <t>SplashDamageGuntlet</t>
-  </si>
-  <si>
-    <t>무기 권 착용시 광역 피해 적용율</t>
-  </si>
-  <si>
-    <t>SplashDamageSpear</t>
-  </si>
-  <si>
-    <t>무기 창 착용시 광역 피해 적용율</t>
-  </si>
-  <si>
-    <t>SplashDamageSword</t>
-  </si>
-  <si>
-    <t>무기 검 착용시 광역 피해 적용율</t>
-  </si>
-  <si>
-    <t>SplashDamageNone</t>
-  </si>
-  <si>
-    <t>무기가 없을때 광역 피해 적용율</t>
-  </si>
-  <si>
-    <t>Coin_PvpRelayTicket </t>
-  </si>
-  <si>
-    <t>일 초기화 용봉지회 티켓 최대 카운트</t>
-  </si>
-  <si>
-    <t>NeedMaterialCountForRulletLock</t>
-  </si>
-  <si>
-    <t>타통 고정 시 추가 필요 재료</t>
-  </si>
-  <si>
-    <t>PvpRelayReward </t>
-  </si>
-  <si>
-    <t>용봉지회 보상</t>
-  </si>
-  <si>
     <t>값 비율</t>
   </si>
   <si>
@@ -235,16 +75,36 @@
     <t>GameDataRatio</t>
   </si>
   <si>
-    <t>GachaEventOn</t>
-  </si>
-  <si>
-    <t>0: 이벤트 종료, 1: 이벤트 진행 중</t>
-  </si>
-  <si>
-    <t>EventCoinRatio</t>
-  </si>
-  <si>
-    <t>추석 송편 드랍율</t>
+    <t>LoanMinInterestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanMaxInterestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 랜덤 금리 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 랜덤 금리 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기 예금 상품 최대 가입 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 상품 최대 가입 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -625,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -644,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -653,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -664,19 +524,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -707,16 +567,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -727,13 +587,13 @@
         <v>220000000001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -741,13 +601,13 @@
         <v>220000000002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,13 +615,13 @@
         <v>220000000003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -769,344 +629,13 @@
         <v>220000000004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>220000000005</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>220000000006</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>70000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>220000000007</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>70000030063</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>220000000008</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>220000000009</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>220000000010</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>220000000011</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>300</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>220000000012</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>220000000013</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>220000000014</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>220000000015</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>220000000016</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>220000000017</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>220000000018</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>220000000019</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>220000000020</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>220000000021</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>220000000022</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>220000000023</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>220000000024</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>220000000025</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1">
-        <v>70000040157</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>220000000026</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>220000000027</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/GameDataTable.xlsx
+++ b/Assets/Excel/GameDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043E912-5895-4EDB-91D2-CEE36F58577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971835D-9B35-47BB-9827-49552A5BF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GameDataTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>별도관리 데이터 키값</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>대출 상품 최대 가입 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndGoldLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTimeSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시간 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEndYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 날짜(년도)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -638,6 +662,51 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>220000000005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-5000000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>220000000006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>220000000007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1347</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
